--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/26_Diyarbakır_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/26_Diyarbakır_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB94204E-F5B2-4A1B-A759-303EF311159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7538EC75-C333-4174-9D2C-D85064AE6BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{202693C0-D81E-4460-86FB-CCCB26BF0E7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{49B962B6-CFB7-4A9B-8CF4-CBCA42BD14F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -945,13 +945,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EB8B77F9-AB3D-4FCC-84C9-F1C3AB3BDFFD}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E78E8F5D-A3A5-408A-8FB2-8F4FCD4E6890}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{92289B10-2854-463A-97EF-FC160762CE32}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{FDD38605-4DA4-4EA7-A265-467C8918A07C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{54E98F4B-5FD2-4C81-AF72-1388DB5C304F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D8BB6BD6-7C15-476A-A906-93D47BA4D289}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{60BAB93D-9AA1-411C-A3B4-256F83E05079}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6CD23B63-FBEE-429C-93F9-415E53220C2A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FDB96355-E12D-4F53-80C5-379B1CA1C2FA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BDD7727D-2D6D-4358-A20D-35923A86F532}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4DF6966A-4F2C-4A65-9209-1B12A8568E7A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{676861C2-3D3F-405C-9045-8C20EB55EF11}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{28A1A852-0D17-44FC-A43D-1569F65F7115}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5B271AB4-6A32-4A55-BFD6-B706391C62FE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A8F7EA-8249-42BC-9AEB-125A78A85858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22288E7B-AA27-4DDF-8160-4EE2BDDA2967}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2592,18 +2592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40F9B722-3796-4BB5-AF46-6492C588B1D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5830F35E-0E40-4241-AB4A-33AA01AD13E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C3F0852-69E8-48F8-BA8C-24FDA84C00F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EBD3363B-3B77-4A09-BFB5-1C190CF39C2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6028A901-A1A5-43F8-8724-F22A4461AC79}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{930E48D2-D675-428C-BC64-183C0781D710}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{704A5ABA-C55C-4B8F-9B72-D0C470EB794A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6118766-CBD9-44B5-9975-A9CC46D4DD78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE71A242-516C-4EAD-AA87-3FF3CE236C58}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47841FEF-A07A-4F66-81DA-5014D63F7D2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12E31FDF-8EC9-488D-B00E-001CCC815C8F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0AE6DF06-C617-4D2F-A262-26BF7070E2E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBB0ABEC-5A45-4B90-A0EF-676C92129D19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7064434B-E68C-4805-A593-EC2E488833B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E396FE7-AC36-4C87-8BE1-E964F3EB1FF2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C7D97AA-3FA3-4998-98A0-060EA10C1E3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB8605B6-FCE9-4C22-BE82-35F5F56F27FF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{959D4B87-DFF0-4A94-B25E-06F75F0CA251}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCCB51EE-535A-4094-8B63-A890C00A06C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCAE0421-ABB9-4CD8-8A05-FBA0B91361C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92D3F61E-0D77-4850-B24B-213074207103}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7D620068-9B07-4D8B-92C7-9A1D531C09BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F808035C-E64A-4586-9933-56E82720C3BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A82BB4B5-3C10-4AE0-A869-220617FB5A28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2D62DC-71BF-4F3D-8019-839F94F72155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B37ED7-CEC4-42E4-B22D-0AF9C7BD6054}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3858,18 +3858,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEC0D824-E11A-4126-BF38-6AE0E242AE53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27041996-3336-4404-AB91-BC8429037A1C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EAA9CA55-1D84-4BA9-AB69-7BF1D969AA5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABB718CE-9230-433C-B603-2C08C9AA5468}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A50C4F92-906C-492B-A7A6-541CE5CD68DD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{75BE20A2-6B72-43FB-BE3F-00BE6372E2F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4E6C6F6-3725-4D83-B9B6-D5B0482DDBD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2288CF09-9150-4243-BD99-69D3FC453352}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F72BC036-678F-4D0D-9A52-494EF088F8F9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8E103CEF-DF2B-43C0-AE5A-73278597BDA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBDA3E7B-ACB7-4EC6-89CF-E92E72438B17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A489988-7F30-4070-97F6-F5142747CF8F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{676D6B5D-A22B-4E2F-8BAD-56DA33744CA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACE8DA5A-4E46-41B0-BCB4-C4F5904F8202}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BD124E4-003F-4ADA-8D0E-097EED0B0425}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEA1D618-1902-4C4F-AE93-563AAA7B1C1C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09F963B3-573F-4220-B0D1-A9A8FC64B8D4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E24104CF-8A5D-4B6D-8115-601125B71C48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{571977B0-5710-4581-A503-60BF8FE854D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{746F878F-2273-40BD-858E-A593D9D1239B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28F18900-0D62-4496-8798-AF3AB774B675}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A586AA8C-6CE6-40D2-BE0C-C958736EC327}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{354EE78A-2E6B-4B56-A936-B22CF1F2D486}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B44803D8-5B15-4A18-8C06-036EC2CD5971}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3882,7 +3882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDA8A5B-205A-4650-9BFE-50F9D993C6B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6749C0-96AE-4CBC-9F44-CF4048BA8C0C}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5120,18 +5120,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BEC916B-912F-4FC1-97B9-44C58F665839}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23E66519-E9D9-477E-9BFF-223EC27FA3E1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71A5129B-5460-4EB7-A047-B7255737F8DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A9A80A2-8F1A-41DA-B33C-9C12B11279ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C59A3AEB-41F2-4016-84B7-8ABEDDB9D170}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17E55B73-FA16-4AAD-B161-D68479B399CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C37435C3-4F64-4BB1-9A5E-0B2548D653EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22234BC7-035C-4DB3-BD0D-1E4A991EAB9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B23C6D42-29A2-413B-8B3C-008DD8D0A688}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C2E6089-F84F-4422-98C4-F6C8055C455C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9C5D565-5A8F-4A3B-B629-54E3802B4AC6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73AAA03E-834A-430E-ADFA-64528D0FA1E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{543E6436-1671-422D-BF1B-D469B5E81AC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B26DDC27-D06E-4879-8CBD-BA3DE0F3C648}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{62269580-05F9-4A70-B19D-A0A72D4F0745}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{097F2435-ADF6-4A0D-BB66-A0799B8B5359}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09E487D4-3A43-41A1-9FB4-DD81EBA31A54}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{945C2301-9376-4F72-B260-6F06979B2B1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C0A5548-2585-45E3-865A-1A5C404C8B5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8A8895E-8769-4E2E-8CBD-A90DFE27D369}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B63265A8-FDC0-40C4-9E81-E3D6AA66ABD2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2E7F1FE5-12AC-4EDC-BF99-9AC5CC9FC038}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DACD9A0D-C2E7-4AF3-9311-1799743F3896}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C833AB07-6F16-4582-AFD7-DCDAA2367E84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5144,7 +5144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0398682-CB9E-4018-9B0A-632FD123969F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E9BE99-F6C8-4433-A2E2-7D41316B5729}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6362,18 +6362,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D18BB313-8592-4012-BD75-95D5CFCCA200}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67B8807C-CC95-43C7-A819-1C2CADA52775}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E24B4BA2-5B7C-4B49-AE9C-90A597935F0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C3E1E04-815A-4DB9-B72D-54AC266007A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E21C0443-0884-4803-99BB-26AD952C4CA3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B33A2E9-18D6-4360-80F0-4FB25D4F69FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06EC67AB-2E7B-43CE-A336-77E7AE16C99D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DC90FB2-A4A7-40E2-B68F-A326FF37EC61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7407F92-1699-401B-A3F0-002C9D8FF519}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C73468CC-19B0-4C83-BA61-DB0140ACBD16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31BE5199-EC08-467B-85D3-5B8DAD5FA90A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B380BA0-45E8-4974-9C8D-55888EFB5843}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBD1378D-D4D7-411F-8FDE-CB6E3C9D31C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{397210F3-8A03-430E-A1D2-A64617394E06}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0E130BD-5F51-42D9-8F9D-E6B859255CB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94931DFB-F0F1-45A2-946B-A2A98B9AE901}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A3C5313-944F-4A18-82EF-2FA99F973810}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D5FF3993-1967-4B2D-ACB2-BD856E290F8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D3E824-831B-49B1-92E5-1BFA58453C24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08499F4B-E451-4D01-B9D3-EBE36C75FEA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8B3EDB1-71B0-4EC8-8943-F1116D11BFA7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{73AB7507-0F64-40DF-A640-E8C0003A0D67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1ECB35E6-3876-4E45-87F7-42B4F4F400C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{476A6236-6FC2-4969-9A9A-1B87B3C0342E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6386,7 +6386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D1A092-C030-45C8-AA4F-F998A769EDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662324B9-11A7-40B1-BB63-50011D6DC368}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7655,18 +7655,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36EBAFAB-75D2-4313-BADE-2980AEC046CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3D4ACC4-2C78-4AE5-8B1A-C87906DB2EAF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{81DC0543-A49A-4A99-B92E-43035293C50F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84411155-41B5-4E0B-9299-45D11E3B01C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F9C5399-810C-460B-A45D-5C3034747BA8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{318FC645-16BE-4EFB-A7C1-C10FF6D51CF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61F4DB18-54FC-4626-9966-7572A189F6B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44472AFC-8580-4FD8-AF44-7A8F697F9664}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB7128B6-FE36-4065-902D-CC6B1E40DA9F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F7532966-4D94-43F2-83B5-D73AB5C19D98}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA663218-2A71-43CE-AB8E-6C9A5F84F49F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB5883EC-8D62-414D-8039-9F38C245C867}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{614280AB-B5EB-4E2B-834E-F7D07C2D89FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99B3CF0E-6245-4280-93B9-656E8EB00873}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2EDF779-E2A9-4AC0-B812-D3E88E4EE34F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BB3FFDC-43E9-4488-8234-0E7732001A07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A40B562-2492-46B6-A1C5-CE8454553699}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9320BFB-FD54-405F-9FC8-9F6F56146C4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CDFFD14-D428-4A05-B421-95F66146372A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C242BE8-DFEA-483C-9E1D-0E56E0888100}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E25829A8-E177-430B-B36D-E01BC4752918}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E8BDE47-39A7-4A14-9AAA-335C90B4C02E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F061E8A-8902-45BF-9BEB-4501CC56B192}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49A3F983-06D9-4D4E-826F-30EBD48896FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7679,7 +7679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CEFA39-6323-4D86-953D-D92C220FFD71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8706BF62-1077-4DB7-807B-CB0796E81E5F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8948,18 +8948,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A47D8D5E-5F42-4C4C-9C37-CBCA6F2660F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33B8B842-9D6C-48A9-94CB-89F6D180FAB5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F483C7E-7858-47A1-AED3-86BC302F8A24}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A24E5F1-534F-4598-8E9A-CEEA8A884EF4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{811B632E-8913-4610-9681-A90785051BE1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62CE2DC2-008D-4020-ADD1-2D49BDB54D7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0DE3C84-C4CD-40E7-8AB8-BB4F4C90B85B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDEED22F-6E89-46B1-AF20-AAB71CDB1F3E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40CC1F53-5EA1-440B-B906-85A9DC33CA9B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C8583E8-994A-4AD6-ACB4-3C42C732747C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D1CA8D8-931F-49A5-84B4-309B2AAE630E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2F2935D-D2A1-401A-AEC5-C20C5F5483A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67A3120F-9D11-49B3-BE21-90B9A0F17054}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47205F10-42AA-4AA1-816E-4B4857F4386B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{118592F5-ED09-4D88-A33D-A9BC0A602F84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C00F33A-79A4-4C05-B1D0-0F1008C06725}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC3329C7-6C9C-4CE5-B851-1D77920BA391}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35D66AE6-48BF-4A52-A9E7-E218FA03D0C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EA8E758-C402-4919-A972-AB7CA0932143}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B18D534F-6A4E-4B5E-B97A-EA8901B78408}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F349DC37-F677-43ED-A150-407FE9B538E0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{27CE59FD-88CE-4539-AFA1-7F827F195720}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A9FA060-4980-4CB8-B093-CC193926DA01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{864191C1-C5A1-4AEC-AEAB-DAB40631F1F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8972,7 +8972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5FBB9B-AC40-4A80-8182-8B0F5D743977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C20FAF5-5CFA-4158-A778-8604D71E8619}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10241,18 +10241,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEFEFD4F-43E0-4CA4-99A8-78E5D8B30053}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A7E8DDE-CF16-459C-91BB-7CBB5C14D592}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11DAC0AA-0F27-4708-A9A5-8209F724322D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64B367C3-56C0-4F47-B8A5-07EE619B9C79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1387BC97-B0BF-48A9-BD6A-603245CF3A4B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE375830-8C79-4E1E-B2D8-80C98215E900}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEE204E8-B3DC-40C1-BD43-691F73C5AF35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FE50FA8-3019-4D73-B938-7DF44AD0F9BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1ED365F-3ABD-4066-BA7F-B80488AE0863}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2198BB22-F3D2-4829-9561-5499165A4BCC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C43104AA-FF3A-420E-9A57-E8047C035336}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B09D379E-DA55-4D9C-BD12-4F9292446E1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CFFEC9D-1528-4D06-BB68-2807DCBC1DA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8480FA37-0B06-492B-8424-3E0492B2593B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B62CA6F-56C1-4187-ADA4-055D581101D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54FB7132-CF76-49DC-9B8C-BA83F485D9E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E266EE1-DEC7-47CC-B3C7-3B98B84A483F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB326A37-A775-49A4-9606-FCEA06294E8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B85A5269-0C14-4F0D-9CB0-8EEB85C39929}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1A01D57-A540-4E9A-B6D3-6050FB811E2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAD9DA2B-B2FB-4D44-BAF6-4041CA62378D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DDBFEBFB-452B-4FAD-9E6B-BE0883BFF0F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{242FAA6A-A5DE-4753-9C55-74D9D593C961}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35EA035F-DBDB-4917-B710-1DB6BA87DA89}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10265,7 +10265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638F33B0-77F8-4902-A708-4B10393FF8F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF67665-7937-4FC5-8398-0CE2CBE4ABC8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11534,18 +11534,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{370B18C3-C71E-4689-8901-A31A76B23A60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70FBECB6-658D-4B65-A8CE-5D62902897DD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FB8CDFE-C040-4CFF-A4C0-3F704615F19E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5D60C4F-D4BD-4B25-8E5A-6AEB8064CB35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECFDE11B-9EA4-4622-87EA-686B1E78C2A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93733D5E-7168-4BC4-8AF6-341961C5EB70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33172D71-1CF0-4E95-8286-5A69F5B00703}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82B178B4-4640-41A3-B8CF-E274BB38D16D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{986BC2C9-3F1C-4542-B1E6-8B09052E5D43}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4B9E35CC-88DC-46E6-9EB8-408E64142EA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8AD48E6-02D9-44F8-98DA-132A99EE1C70}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E204F796-26C3-4F2E-9760-7CD5DE0DD10F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5B88AB3-9615-4858-B313-A7A70B7C889D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4C23BEA-9E75-4A53-B980-25D3894D4071}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F558A956-A9FD-4BF9-B2F6-8778AC0F98EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA6F4237-64F0-45FC-84B8-E13F763B14B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{436232B6-5F1F-4CB0-8874-A949AC413AC3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1D5FECB9-6A46-4420-972F-AB4F19BF3D7A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9AB9A55-12DA-4349-BE49-79F65E017F9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79D2FEA2-35C8-41D9-AD39-398B048A66F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{432D82C0-154E-4C7C-AA20-193A8EB9E2FC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D6AC0171-1E97-468F-9475-15F363D74329}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F685BC3A-7100-4F15-89FB-0D516BE4C0F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2FA8926C-166A-4FFF-8358-486C8A619D13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11558,7 +11558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34E0760-E4CE-4A3C-B21F-3C5A9B96CF6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89408940-8E26-448C-8758-C9ED25ECA36E}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12820,18 +12820,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFE1CD2B-FB8C-4D10-B55E-15A2439FC665}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97BC7A05-35F2-44B1-9992-E73820C84CC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8623496A-0750-4AFF-8EF7-52CA9DE20F1D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7D58170-F52C-4219-A3AF-C5176A5EA6B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{562F912F-EFC7-4B15-B52D-1302C31980C3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F6B5AA6-20E3-4609-826A-B9A059C47E71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7FA1AD8-161F-4033-BC6D-BF911FFE5EEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35CD5C9E-7808-4FDA-BF4A-94C9900E7DC0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCD86FA9-AF00-4F7E-903B-4BF6B1E2FA25}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{361877C1-11B7-4B04-94EF-3D2BFF963487}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C173458C-81DA-4AED-8A2B-DEE1803AAD80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2DD2C67-29BA-419D-BD2A-C1C97C409BA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6BF1216-C58E-45B9-802B-80F600BE1546}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E163F964-D1BF-4313-AE58-6C34EF3B2E86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F531996-1BC6-4F75-A4D4-A964DFAD8C3A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A5E63649-3EEE-4E99-AE11-34F6C0F9BD4D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE03B00D-BEE4-4FD4-82DA-EC0AF335BE8E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB0D7EC3-5B2F-4362-9833-A3B1CC0ABB0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BDFBD38-485F-4076-A245-2208EFAA01F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B63893D-A204-4D01-9DCA-90DFB430CD8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C2E46AA-DD0A-4E15-AA8F-BAFA0C096E38}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{62E95F54-619E-4E02-A20F-86D441A86104}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF941F01-E227-4582-A6AE-0892199F6C67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DEF7207-D027-4B15-A6F7-0AE5820FF5E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12844,7 +12844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEB3829-3B96-4C7E-B535-C40E6B28E8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2FE5C6-1824-473E-8C98-39615940E716}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14092,18 +14092,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE669C69-9B75-457A-BD23-C4C35EF3B81A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54374B95-0EC9-410F-A24E-25698FABD704}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C925003E-E7C5-4824-8DF0-893EE85548DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{175222E6-F9AA-43D1-B147-AE1F5B75B7AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6EF17126-2540-47D9-B916-A296D62C9960}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68B72705-B573-4D27-A920-667FF6832849}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F935FFE5-6873-4623-A664-42EC696F2DA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E3C0851-FEFD-4F7E-8A03-EA5F72B22B8E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDE20BC0-44BF-47F3-9F8C-0FB6FC2F35FA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0808490B-43D4-4C8B-AFC2-55E22AE59A86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F269E58A-83C7-4AB0-8760-2CA2B6292C79}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD33896F-2C74-4CDF-95A8-3FD0E46ED967}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F61739A-C5E8-4A8D-8BE8-D5C2C3177062}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5635F95-A3DB-4D92-8908-A0F355C3EBCE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F92259B5-BEEB-4E3B-8015-A778294E631E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B0A9CA9-3CC0-4A86-A2C0-FBBC4F1B340D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{929C20E0-7A59-4341-B0C3-15434945DBFC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F877A58-AAF1-414C-88D0-A983C28031D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{933370FA-6E26-4AA7-AA16-25A58102F6AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{750F2771-C51E-47D8-A928-03B01F2D974A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95007F80-4A51-4E68-B06D-44182FE5934D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E5A0294E-F463-422C-A615-3C8AA63BEEC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{972754D9-2CCC-4AEE-8A38-F19EBA4181FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8164FE4C-B8AB-40C4-B39F-6C6B5D3AF737}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14116,7 +14116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B8AAFB-2E4C-454B-B4ED-8E12DFD1BB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00CF1DA-B0A3-4821-A983-867ABD89B7F1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15364,18 +15364,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A072E4E7-75CB-46CB-A4FE-10EB58A561BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{934E45A4-B710-4E47-BBEB-D74E4725C4FD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5F0D1279-6168-4FC8-88FF-049DA928DA08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77F71E3F-6A0A-482E-A8C3-F8D4EBF22BD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D521966-7071-4BDB-A3DF-F9938A32E5DC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A67EBD44-EC72-4987-A935-BFC4A3CD5A22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED54FB17-59D0-40DC-B8F2-9EEB55DC3118}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D4D8C69-EED1-4E9F-A0BF-116F06C4AB08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F265A20-DC4F-4273-8E4D-0C0C96C2F70E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FEC86AFF-17B4-4724-B372-A7B731331649}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7AB70CA-548E-4BDD-A0DD-AE423639E041}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7633FADD-DF24-401F-B10E-1252BEBC01F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{852C2A2E-8891-4CB8-A888-ABEFDC127B6C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2950EBC-DDBA-4047-AC48-CEF34080041C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6E929DC-B6EF-41A4-B1B9-B24D8EDB5C10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BEC9D11-CC21-4602-BB8B-0D24FE15D6B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BDE7C47-E175-45F7-A5E5-10E3F11E64D0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{74B878A6-7FD8-4E62-BD4A-15755C5F4BE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80CE063D-8988-4B7A-B6F2-9FF075D716E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CDA62FE-F984-4CE0-831C-D170E2800F68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A745F38F-2491-4BC1-959E-A03905FEA2D5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C26D62E-D040-492E-870B-4227B1A71E0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA731E1F-4B0B-45A1-B25E-B97350F5B857}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A47ED4B-95F4-4687-A64A-B548F1B43143}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15388,7 +15388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DEABB0-B6E6-4829-9288-3560C6D78C1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872260D1-EDAD-4CBC-BDAF-BEA53E44E893}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16636,18 +16636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{973C124E-61F0-4D79-B067-1BD722FF8795}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26697137-F0AB-4199-93F1-AE0BA4A57775}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95034B1D-9A3E-4660-8A4B-454452848AC0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AD0F1F7-5560-43E0-A7F6-4FD1C4F2321D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DFEFA3B-7944-494F-9AE5-D6EA27BC5707}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFD2AFE1-5490-4006-9565-95E08CD16A40}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{500835E5-694C-487D-9169-EE346625C520}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A8F4A56-A48B-42D6-B95B-F6BB4B2854FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91E62D5B-E359-4CED-923A-ACFCCACC0582}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C1127C94-A4CD-42D7-8E52-FFA60338CF57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{606A589E-EB47-4094-82D1-452544E30C95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31A3C0F1-0A29-4CD0-A551-B25E4959568C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C005E317-6BD0-4BB0-95E8-EA30E8EC1625}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1725E0C-A284-433D-93BB-FBB9D16EAD87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C26A7E7B-55A1-4C49-A110-CC9491C393F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DABC66CC-5019-4DA9-B420-C90BF111E02F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B046B6B-2511-4AD7-B592-94FF9CA3EA2B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C94DCE48-0988-4A7C-9561-544C75BC16FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB52AEE2-E298-4E08-87ED-4EF8A7947F4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A833079-B67D-4B59-A73E-426371542D03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6FFB5E7-F824-446D-81DF-A9B0504A532D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C0481486-0E14-4617-A59B-7589C9592EFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC99E9BC-B383-4E48-B329-AF512E843FE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B62C9F4-779F-473A-AEDD-4E54DCC5F17C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
